--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2019.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2019.xlsx
@@ -384,7 +384,7 @@
         <v>175.494</v>
       </c>
       <c r="C2">
-        <v>136.3329488618544</v>
+        <v>140.2111052557733</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>13.339</v>
       </c>
       <c r="C3">
-        <v>10.36243521070963</v>
+        <v>10.65720727208201</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>8.634</v>
       </c>
       <c r="C4">
-        <v>6.707344299367789</v>
+        <v>6.898142858321916</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>20.346</v>
       </c>
       <c r="C5">
-        <v>15.80584052755814</v>
+        <v>16.25545686766478</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>51.383</v>
       </c>
       <c r="C6">
-        <v>39.91701090275829</v>
+        <v>41.05249878262161</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>15.866</v>
       </c>
       <c r="C7">
-        <v>12.32554142387877</v>
+        <v>12.67615642693254</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>11.355</v>
       </c>
       <c r="C8">
-        <v>8.821159893365907</v>
+        <v>9.072088505472014</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>35.014</v>
       </c>
       <c r="C9">
-        <v>27.20071268219409</v>
+        <v>27.97447000709794</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>56.474</v>
       </c>
       <c r="C10">
-        <v>43.87196687080107</v>
+        <v>45.11995827899836</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>13.262</v>
       </c>
       <c r="C11">
-        <v>10.30261756986514</v>
+        <v>10.59568804575692</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>5.058</v>
       </c>
       <c r="C12">
-        <v>3.92931983625229</v>
+        <v>4.041094113666</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>9.214</v>
       </c>
       <c r="C13">
-        <v>7.157918736897707</v>
+        <v>7.361534433238145</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>2.354</v>
       </c>
       <c r="C14">
-        <v>1.82871073438867</v>
+        <v>1.880730633366897</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>2.278</v>
       </c>
       <c r="C15">
-        <v>1.76966994602268</v>
+        <v>1.820010358033047</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>26.333</v>
       </c>
       <c r="C16">
-        <v>20.4568563163368</v>
+        <v>21.03877645218798</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>23.958</v>
       </c>
       <c r="C17">
-        <v>18.61183167989964</v>
+        <v>19.14126784800515</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>12.847</v>
       </c>
       <c r="C18">
-        <v>9.980223791287697</v>
+        <v>10.26412338439445</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>1.367</v>
       </c>
       <c r="C19">
-        <v>1.061957338109308</v>
+        <v>1.092166005018075</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>38.308</v>
       </c>
       <c r="C20">
-        <v>29.75966474637262</v>
+        <v>30.60621457222562</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>98.75700000000001</v>
       </c>
       <c r="C21">
-        <v>76.71962021921064</v>
+        <v>78.90200304138263</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>17.515</v>
       </c>
       <c r="C22">
-        <v>13.60657116092504</v>
+        <v>13.99362661147885</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>0.279</v>
       </c>
       <c r="C23">
-        <v>0.2167418415014609</v>
+        <v>0.2229073265545303</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>3.184</v>
       </c>
       <c r="C24">
-        <v>2.473498291543553</v>
+        <v>2.543859956091844</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>33.895</v>
       </c>
       <c r="C25">
-        <v>26.33141475875274</v>
+        <v>27.08044384790611</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>9.349</v>
       </c>
       <c r="C26">
-        <v>7.262793821495188</v>
+        <v>7.469392817054852</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>0.73</v>
       </c>
       <c r="C27">
-        <v>0.5671023093048976</v>
+        <v>0.5832342236014592</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>13.435</v>
       </c>
       <c r="C28">
-        <v>10.43701304864561</v>
+        <v>10.73390656724055</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>31.568</v>
       </c>
       <c r="C29">
-        <v>24.52367904128357</v>
+        <v>25.22128489130256</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>12.726</v>
       </c>
       <c r="C30">
-        <v>9.886224641389216</v>
+        <v>10.16745031445503</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>16.463</v>
       </c>
       <c r="C31">
-        <v>12.78932235354319</v>
+        <v>13.15313016869976</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>4.594</v>
       </c>
       <c r="C32">
-        <v>3.568860286228356</v>
+        <v>3.670380853733019</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>2.329</v>
       </c>
       <c r="C33">
-        <v>1.809289422426173</v>
+        <v>1.860756858586026</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>6.39</v>
       </c>
       <c r="C34">
-        <v>4.964087337614103</v>
+        <v>5.105296833990855</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>3.124</v>
       </c>
       <c r="C35">
-        <v>2.426887142833562</v>
+        <v>2.495922896617751</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>113.656</v>
       </c>
       <c r="C36">
-        <v>88.29394529638004</v>
+        <v>90.80557385979102</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>10.639</v>
       </c>
       <c r="C37">
-        <v>8.264933518760007</v>
+        <v>8.500039595747841</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>32.561</v>
       </c>
       <c r="C38">
-        <v>25.29509355243393</v>
+        <v>26.01464322559879</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>6.691</v>
       </c>
       <c r="C39">
-        <v>5.19791993364256</v>
+        <v>5.345781082352553</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>4.298</v>
       </c>
       <c r="C40">
-        <v>3.338911952592397</v>
+        <v>3.433891360327496</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>15.757</v>
       </c>
       <c r="C41">
-        <v>12.24086450372229</v>
+        <v>12.58907076888793</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>1.12</v>
       </c>
       <c r="C42">
-        <v>0.8700747759198428</v>
+        <v>0.8948251101830609</v>
       </c>
     </row>
     <row r="43">
@@ -917,7 +917,7 @@
         <v>7.352</v>
       </c>
       <c r="C43">
-        <v>5.711419421930969</v>
+        <v>5.873887687558806</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         <v>30.702</v>
       </c>
       <c r="C44">
-        <v>247</v>
+        <v>225.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2019.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2019.xlsx
@@ -384,7 +384,7 @@
         <v>175.494</v>
       </c>
       <c r="C2">
-        <v>140.2111052557733</v>
+        <v>139.3243227574293</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>13.339</v>
       </c>
       <c r="C3">
-        <v>10.65720727208201</v>
+        <v>10.58980444494598</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>8.634</v>
       </c>
       <c r="C4">
-        <v>6.898142858321916</v>
+        <v>6.854514699577449</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>20.346</v>
       </c>
       <c r="C5">
-        <v>16.25545686766478</v>
+        <v>16.1526472176978</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>51.383</v>
       </c>
       <c r="C6">
-        <v>41.05249878262161</v>
+        <v>40.79285717030207</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>15.866</v>
       </c>
       <c r="C7">
-        <v>12.67615642693254</v>
+        <v>12.59598450584848</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>11.355</v>
       </c>
       <c r="C8">
-        <v>9.072088505472014</v>
+        <v>9.014710958269855</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>35.014</v>
       </c>
       <c r="C9">
-        <v>27.97447000709794</v>
+        <v>27.79754200729729</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>56.474</v>
       </c>
       <c r="C10">
-        <v>45.11995827899836</v>
+        <v>44.83459151539689</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>13.262</v>
       </c>
       <c r="C11">
-        <v>10.59568804575692</v>
+        <v>10.52867430458607</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>5.058</v>
       </c>
       <c r="C12">
-        <v>4.041094113666</v>
+        <v>4.015535713512015</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>9.214</v>
       </c>
       <c r="C13">
-        <v>7.361534433238145</v>
+        <v>7.314975497093655</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>2.354</v>
       </c>
       <c r="C14">
-        <v>1.880730633366897</v>
+        <v>1.868835719574394</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>2.278</v>
       </c>
       <c r="C15">
-        <v>1.820010358033047</v>
+        <v>1.808499477141236</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>26.333</v>
       </c>
       <c r="C16">
-        <v>21.03877645218798</v>
+        <v>20.90571410516249</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>23.958</v>
       </c>
       <c r="C17">
-        <v>19.14126784800515</v>
+        <v>19.02020652912631</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>12.847</v>
       </c>
       <c r="C18">
-        <v>10.26412338439445</v>
+        <v>10.19920666498396</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>1.367</v>
       </c>
       <c r="C19">
-        <v>1.092166005018075</v>
+        <v>1.085258465870092</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>38.308</v>
       </c>
       <c r="C20">
-        <v>30.60621457222562</v>
+        <v>30.41264177801864</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>98.75700000000001</v>
       </c>
       <c r="C21">
-        <v>78.90200304138263</v>
+        <v>78.40297755225505</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>17.515</v>
       </c>
       <c r="C22">
-        <v>13.99362661147885</v>
+        <v>13.90512218706266</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>0.279</v>
       </c>
       <c r="C23">
-        <v>0.2229073265545303</v>
+        <v>0.22149752156383</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>3.184</v>
       </c>
       <c r="C24">
-        <v>2.543859956091844</v>
+        <v>2.527770998778619</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>33.895</v>
       </c>
       <c r="C25">
-        <v>27.08044384790611</v>
+        <v>26.90917022726171</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>9.349</v>
       </c>
       <c r="C26">
-        <v>7.469392817054852</v>
+        <v>7.422151717205185</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>0.73</v>
       </c>
       <c r="C27">
-        <v>0.5832342236014592</v>
+        <v>0.5795454865290176</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>13.435</v>
       </c>
       <c r="C28">
-        <v>10.73390656724055</v>
+        <v>10.66601864591418</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>31.568</v>
       </c>
       <c r="C29">
-        <v>25.22128489130256</v>
+        <v>25.06176975170963</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>12.726</v>
       </c>
       <c r="C30">
-        <v>10.16745031445503</v>
+        <v>10.10314501584696</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>16.463</v>
       </c>
       <c r="C31">
-        <v>13.15313016869976</v>
+        <v>13.06994156811947</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>4.594</v>
       </c>
       <c r="C32">
-        <v>3.670380853733019</v>
+        <v>3.64716707549905</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>2.329</v>
       </c>
       <c r="C33">
-        <v>1.860756858586026</v>
+        <v>1.848988271405592</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>6.39</v>
       </c>
       <c r="C34">
-        <v>5.105296833990855</v>
+        <v>5.073007751945783</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>3.124</v>
       </c>
       <c r="C35">
-        <v>2.495922896617751</v>
+        <v>2.480137123173494</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>113.656</v>
       </c>
       <c r="C36">
-        <v>90.80557385979102</v>
+        <v>90.23126276293428</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>10.639</v>
       </c>
       <c r="C37">
-        <v>8.500039595747841</v>
+        <v>8.446280042715365</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>32.561</v>
       </c>
       <c r="C38">
-        <v>26.01464322559879</v>
+        <v>25.85011039297444</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>6.691</v>
       </c>
       <c r="C39">
-        <v>5.345781082352553</v>
+        <v>5.311971027898159</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>4.298</v>
       </c>
       <c r="C40">
-        <v>3.433891360327496</v>
+        <v>3.412173289180435</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>15.757</v>
       </c>
       <c r="C41">
-        <v>12.58907076888793</v>
+        <v>12.50944963183251</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>1.12</v>
       </c>
       <c r="C42">
-        <v>0.8948251101830609</v>
+        <v>0.8891656779623284</v>
       </c>
     </row>
     <row r="43">
@@ -917,7 +917,7 @@
         <v>7.352</v>
       </c>
       <c r="C43">
-        <v>5.873887687558806</v>
+        <v>5.836737557481284</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         <v>30.702</v>
       </c>
       <c r="C44">
-        <v>225.58</v>
+        <v>230.477915190917</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2019.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2019.xlsx
@@ -384,7 +384,7 @@
         <v>175.494</v>
       </c>
       <c r="C2">
-        <v>140.2111052557733</v>
+        <v>138.9075232746241</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>13.339</v>
       </c>
       <c r="C3">
-        <v>10.65720727208201</v>
+        <v>10.55812422624255</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>8.634</v>
       </c>
       <c r="C4">
-        <v>6.898142858321916</v>
+        <v>6.834008888925571</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>20.346</v>
       </c>
       <c r="C5">
-        <v>16.25545686766478</v>
+        <v>16.10432532477179</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>51.383</v>
       </c>
       <c r="C6">
-        <v>41.05249878262161</v>
+        <v>40.67082218434823</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>15.866</v>
       </c>
       <c r="C7">
-        <v>12.67615642693254</v>
+        <v>12.55830264439346</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>11.355</v>
       </c>
       <c r="C8">
-        <v>9.072088505472014</v>
+        <v>8.987742753503573</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>35.014</v>
       </c>
       <c r="C9">
-        <v>27.97447000709794</v>
+        <v>27.71438351133194</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>56.474</v>
       </c>
       <c r="C10">
-        <v>45.11995827899836</v>
+        <v>44.70046536867994</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>13.262</v>
       </c>
       <c r="C11">
-        <v>10.59568804575692</v>
+        <v>10.49717696142355</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>5.058</v>
       </c>
       <c r="C12">
-        <v>4.041094113666</v>
+        <v>4.003522927980719</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>9.214</v>
       </c>
       <c r="C13">
-        <v>7.361534433238145</v>
+        <v>7.293092182367409</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>2.354</v>
       </c>
       <c r="C14">
-        <v>1.880730633366897</v>
+        <v>1.863244953038081</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>2.278</v>
       </c>
       <c r="C15">
-        <v>1.820010358033047</v>
+        <v>1.803089211138806</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>26.333</v>
       </c>
       <c r="C16">
-        <v>21.03877645218798</v>
+        <v>20.84317304517918</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>23.958</v>
       </c>
       <c r="C17">
-        <v>19.14126784800515</v>
+        <v>18.96330611082683</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>12.847</v>
       </c>
       <c r="C18">
-        <v>10.26412338439445</v>
+        <v>10.16869494973672</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>1.367</v>
       </c>
       <c r="C19">
-        <v>1.092166005018075</v>
+        <v>1.082011831267229</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>38.308</v>
       </c>
       <c r="C20">
-        <v>30.60621457222562</v>
+        <v>30.32166000891369</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>98.75700000000001</v>
       </c>
       <c r="C21">
-        <v>78.90200304138263</v>
+        <v>78.16842898350968</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>17.515</v>
       </c>
       <c r="C22">
-        <v>13.99362661147885</v>
+        <v>13.86352393902379</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>0.279</v>
       </c>
       <c r="C23">
-        <v>0.2229073265545303</v>
+        <v>0.2208348946039188</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>3.184</v>
       </c>
       <c r="C24">
-        <v>2.543859956091844</v>
+        <v>2.520208976411746</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>33.895</v>
       </c>
       <c r="C25">
-        <v>27.08044384790611</v>
+        <v>26.82866936415708</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>9.349</v>
       </c>
       <c r="C26">
-        <v>7.469392817054852</v>
+        <v>7.399947776530595</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>0.73</v>
       </c>
       <c r="C27">
-        <v>0.5832342236014592</v>
+        <v>0.5778117314009343</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>13.435</v>
       </c>
       <c r="C28">
-        <v>10.73390656724055</v>
+        <v>10.63411042653637</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>31.568</v>
       </c>
       <c r="C29">
-        <v>25.22128489130256</v>
+        <v>24.98679552995164</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>12.726</v>
       </c>
       <c r="C30">
-        <v>10.16745031445503</v>
+        <v>10.07292067644971</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>16.463</v>
       </c>
       <c r="C31">
-        <v>13.15313016869976</v>
+        <v>13.03084182747066</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>4.594</v>
       </c>
       <c r="C32">
-        <v>3.670380853733019</v>
+        <v>3.63625629322725</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>2.329</v>
       </c>
       <c r="C33">
-        <v>1.860756858586026</v>
+        <v>1.843456880044899</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>6.39</v>
       </c>
       <c r="C34">
-        <v>5.105296833990855</v>
+        <v>5.057831457057493</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>3.124</v>
       </c>
       <c r="C35">
-        <v>2.495922896617751</v>
+        <v>2.472717601228108</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>113.656</v>
       </c>
       <c r="C36">
-        <v>90.80557385979102</v>
+        <v>89.96132896452683</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>10.639</v>
       </c>
       <c r="C37">
-        <v>8.500039595747841</v>
+        <v>8.42101234297882</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>32.561</v>
       </c>
       <c r="C38">
-        <v>26.01464322559879</v>
+        <v>25.77277778924085</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>6.691</v>
       </c>
       <c r="C39">
-        <v>5.345781082352553</v>
+        <v>5.296079855895412</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>4.298</v>
       </c>
       <c r="C40">
-        <v>3.433891360327496</v>
+        <v>3.401965508987967</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>15.757</v>
       </c>
       <c r="C41">
-        <v>12.58907076888793</v>
+        <v>12.47202664614318</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>1.12</v>
       </c>
       <c r="C42">
-        <v>0.8948251101830609</v>
+        <v>0.8865056700945841</v>
       </c>
     </row>
     <row r="43">
@@ -917,7 +917,7 @@
         <v>7.352</v>
       </c>
       <c r="C43">
-        <v>5.873887687558806</v>
+        <v>5.819276505835163</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         <v>30.702</v>
       </c>
       <c r="C44">
-        <v>225.58</v>
+        <v>232.78</v>
       </c>
     </row>
   </sheetData>
